--- a/Agenda-NITC-Shorten.xlsx
+++ b/Agenda-NITC-Shorten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theconqueror/Documents/Works/CSSL/Docs/Agenda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theconqueror/Documents/Works/CSSL/NITC-Agenda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E87339-41DE-4940-8833-60F5DC8542D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F008DE-8C7B-834A-B658-4E8900CCCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{566DB127-D6F1-E54F-AD44-40FD9ADB0586}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
   <si>
     <t>INAUGURATION - 14th October</t>
   </si>
@@ -72,23 +72,10 @@
     <t xml:space="preserve">Lighting of Digital Lamp </t>
   </si>
   <si>
-    <t xml:space="preserve">NITC 2025 Curtain Raiser </t>
-  </si>
-  <si>
-    <t>CSSL National ICT Awards</t>
-  </si>
-  <si>
-    <t>The compere will invite the President of CSSL, the Project Chair, Mastercard's Country Manager, and the CEOs of DMS and SAT. The Chief Guest will then present the CSSL National ICT Researcher, Educator, CIO, and Student (School) awards.</t>
-  </si>
-  <si>
     <t>6.45pm</t>
   </si>
   <si>
     <t xml:space="preserve">Address by the Chief Guest </t>
-  </si>
-  <si>
-    <t>Address by the Chief Guest - His Excellency Anura Kumara Dissanayake, 
-The President of the Democratic Socialist Republic of Sri Lanka</t>
   </si>
   <si>
     <t>6.55pm</t>
@@ -111,9 +98,6 @@
 Keynote address by the Strategic Partner Mastercard Mr. Sandun Hapugoda, Country Manager Mastercardc</t>
   </si>
   <si>
-    <t>Following a welcome dance and the NITC 2025 curtain raiser, the compere will introduce CSSL &amp; NITC and invite Mr. Heshan Karunaratne, President of CSSL.</t>
-  </si>
-  <si>
     <t>The event opens with the National Anthem, followed by the Chief Guest lighting a digital lamp to launch NITC 2025, accompanied by a video and light show.</t>
   </si>
   <si>
@@ -463,6 +447,31 @@
   </si>
   <si>
     <t>4.45 pm - 5.00 pm</t>
+  </si>
+  <si>
+    <t>6.13pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome dance </t>
+  </si>
+  <si>
+    <t>NITC 2025 Curtain Raiser</t>
+  </si>
+  <si>
+    <t>Welcome dance by dance troop</t>
+  </si>
+  <si>
+    <t>Curtain Raiser</t>
+  </si>
+  <si>
+    <t>Welcome Address</t>
+  </si>
+  <si>
+    <t>Mr. Heshan Karunaratne, President/ Computer Society of Sri Lanka</t>
+  </si>
+  <si>
+    <t>Address by His Excellency Anura Kumara Dissanayake, 
+The President of the Democratic Socialist Republic of Sri Lanka</t>
   </si>
 </sst>
 </file>
@@ -609,19 +618,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -938,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF789D9-CD4B-174C-8E0D-823E1DD73CE2}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -990,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -1001,136 +1010,136 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
@@ -1138,446 +1147,457 @@
     </row>
     <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Agenda-NITC-Shorten.xlsx
+++ b/Agenda-NITC-Shorten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theconqueror/Documents/Works/CSSL/NITC-Agenda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F008DE-8C7B-834A-B658-4E8900CCCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BBEFE2-75A0-0A46-BAD3-B238C094F8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{566DB127-D6F1-E54F-AD44-40FD9ADB0586}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{566DB127-D6F1-E54F-AD44-40FD9ADB0586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,426 +52,426 @@
     <t>5.00pm</t>
   </si>
   <si>
-    <t>Arrival of Guests Registration
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>6. 00pm</t>
+  </si>
+  <si>
+    <t>Arrival of Chief Guest</t>
+  </si>
+  <si>
+    <t>6.05pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting of Digital Lamp </t>
+  </si>
+  <si>
+    <t>6.45pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address by the Chief Guest </t>
+  </si>
+  <si>
+    <t>6.55pm</t>
+  </si>
+  <si>
+    <t>Keynote address by the Guest of Honor</t>
+  </si>
+  <si>
+    <t>Compere will introduce the Guest of Honor Hon. Eranga Weeraratne, Deputy Minister of Digital Economy.
+Keynote address by the Guest of Honor</t>
+  </si>
+  <si>
+    <t>7.15pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynote address by the Strategic Partner </t>
+  </si>
+  <si>
+    <t>Compere will introduce the Keynote Speaker (Strategic Partner)
+Keynote address by the Strategic Partner Mastercard Mr. Sandun Hapugoda, Country Manager Mastercardc</t>
+  </si>
+  <si>
+    <t>The event opens with the National Anthem, followed by the Chief Guest lighting a digital lamp to launch NITC 2025, accompanied by a video and light show.</t>
+  </si>
+  <si>
+    <t>Upon arrival, the CSSL President welcomes the Chief Guest and Guest of Honour, introduces the Executive Council, and all are then escorted to the hall by traditional dancers.</t>
+  </si>
+  <si>
+    <t>Dance Act 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSSL ICT Awards 2024 Judges Recognition </t>
+  </si>
+  <si>
+    <t>For the Judges Recognition, the compere will invite the Minister and Secretary of Digital Economy, the CSSL President, Project Chair, and the NITC 2025 Conference Chair.</t>
+  </si>
+  <si>
+    <t>7.40pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSSL ICT Awards 2024 </t>
+  </si>
+  <si>
+    <t>The compere will invite the Minister and Secretary of Digital Economy, the CSSL President, Project Chair, NITC Conference Chair, and sponsors to present the remaining awards: Best Founder, Postgraduate &amp; Undergraduate Student, and Emerging ICT Leader.</t>
+  </si>
+  <si>
+    <t>7.50pm</t>
+  </si>
+  <si>
+    <t>Keynote Speaker (Diamond Sponsor 1)</t>
+  </si>
+  <si>
+    <t>The compere will introduce the keynote speaker, Mr. Lasantha Bogoda, Director/CEO of Diamond Sponsor DMS Software Technologies, for his address.</t>
+  </si>
+  <si>
+    <t>7.55pm</t>
+  </si>
+  <si>
+    <t>Keynote Speaker (Diamond Sponsor 2)</t>
+  </si>
+  <si>
+    <t>The compere will introduce the next keynote speaker, Mr. Feroze Kamardeen, Director of Diamond Sponsor SAT Group, followed by a 30-second corporate video.</t>
+  </si>
+  <si>
+    <t>8.00pm</t>
+  </si>
+  <si>
+    <t>Sponsor Recognition of the NITC 2024.</t>
+  </si>
+  <si>
+    <t>8.10pm</t>
+  </si>
+  <si>
+    <t>Final Dance Act</t>
+  </si>
+  <si>
+    <t>8.15pm</t>
+  </si>
+  <si>
+    <t>Vote of Thanks by Conference Chair</t>
+  </si>
+  <si>
+    <t>8.20pm</t>
+  </si>
+  <si>
+    <t>Fellowship &amp; Cocktail</t>
+  </si>
+  <si>
+    <t>The compere will invite the CSSL President, Conference Chair, and Secretary on stage to recognize the NITC 2024 sponsors.</t>
+  </si>
+  <si>
+    <t>7.25pm</t>
+  </si>
+  <si>
+    <t>7.30pm</t>
+  </si>
+  <si>
+    <t>6.20pm</t>
+  </si>
+  <si>
+    <t>6.10pm</t>
+  </si>
+  <si>
+    <t>8.15 am - 9.00 am</t>
+  </si>
+  <si>
+    <t>Please welcome our guest speaker, Mr. Sanjaya Karunasena, Chief Executive Officer of GovTech.</t>
+  </si>
+  <si>
+    <t>Guest speech</t>
+  </si>
+  <si>
+    <t>9.00 - 9.20 am</t>
+  </si>
+  <si>
+    <t>9.20 am - 9.45 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynote 1: Mastercard </t>
+  </si>
+  <si>
+    <t>Keynote 1: Mr. Sandun Hapugoda, Country Manager for Sri Lanka &amp; Maldives at Mastercard.</t>
+  </si>
+  <si>
+    <t>9.45 am - 10.45 am</t>
+  </si>
+  <si>
+    <t>Panel Discussion 1</t>
+  </si>
+  <si>
+    <t>Panel Discussion 1: "E-Government 5.0: Towards Human-Centric, Integrated, and Proactive Public Services." Featuring representatives from Mastercard, DMS/Oracle, SAT/LOLC, and CryptoGen, moderated by Past President Mr. Niranjan De Silva.</t>
+  </si>
+  <si>
+    <t>10.45 am - 11.20 am</t>
+  </si>
+  <si>
+    <t>Morning Tea</t>
+  </si>
+  <si>
+    <t>11.20 am - 11.45 am</t>
+  </si>
+  <si>
+    <t>Keynote 2: DMS</t>
+  </si>
+  <si>
+    <t>Keynote 2: Mr. Yu Ka Chan, Director of Cloud Engineering ASEAN at Oracle Corporation.</t>
+  </si>
+  <si>
+    <t>11.45 pm - 12.10 pm</t>
+  </si>
+  <si>
+    <t>Keynote 3: SAT</t>
+  </si>
+  <si>
+    <t>Keynote 3: Mr. Sudhir Jampala, National Manager at OpenText.</t>
+  </si>
+  <si>
+    <t>12.10 pm -12.35 pm</t>
+  </si>
+  <si>
+    <t>Keynote 4</t>
+  </si>
+  <si>
+    <t>Keynote 4: Dr. Yasas V. Abeywickrama, COO of Doerscircle (Singapore), on taking Sri Lankan digital businesses global.</t>
+  </si>
+  <si>
+    <t>12.35pm - 1.00 pm</t>
+  </si>
+  <si>
+    <t>Advancing Financial Inclusion in the Digital Economy</t>
+  </si>
+  <si>
+    <t>Mr. Sumudu Rathnayake, Advisor to the Ministry of Digital Economy and Director of RDA, will discuss strategies and initiatives for promoting financial inclusion through digital transformation.</t>
+  </si>
+  <si>
+    <t>01.00 pm - 2.00 pm</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>2.00 pm - 2.25 pm</t>
+  </si>
+  <si>
+    <t>Fintech: Mr. Shashi Madanayake</t>
+  </si>
+  <si>
+    <t>2.25 pm - 2.50 pm</t>
+  </si>
+  <si>
+    <t>Fintech: Mr.Karthik Kishore</t>
+  </si>
+  <si>
+    <t>2.50 pm - 3.15 pm</t>
+  </si>
+  <si>
+    <t>Mr. Shashi Madanayake, Director of Account Management at Mastercard</t>
+  </si>
+  <si>
+    <t>Mr. Karthik Kishore, Regional Director at Zscaler</t>
+  </si>
+  <si>
+    <t>Fintech: Mr. Mahesh Patel</t>
+  </si>
+  <si>
+    <t>Aiken - Mr. Mahesh Patel,Director Products, Hitachi Payment Services (Pvt) Ltd</t>
+  </si>
+  <si>
+    <t>3.15 pm - 3.35 pm</t>
+  </si>
+  <si>
+    <t>3.35 pm - 4.00 pm</t>
+  </si>
+  <si>
+    <t>EduTech: Dr. Dayan Rajapakse</t>
+  </si>
+  <si>
+    <t>Dr. Dayan Rajapakse, Managing Director of ESOFT Metro Campus, will explore the responsible integration of artificial intelligence in educational environments, addressing both transformative potential and ethical considerations in teaching and learning.</t>
+  </si>
+  <si>
+    <t>4.00 pm - 4.25 pm</t>
+  </si>
+  <si>
+    <t>TravelTech: Mr. Aruna Basnayake</t>
+  </si>
+  <si>
+    <t>Mr. Aruna Basnayake, AGM of Digital Engineering &amp; Strategic Solutions at DMS, will explore how artificial intelligence and data-driven personalization are revolutionizing the travel industry and enhancing customer experiences.</t>
+  </si>
+  <si>
+    <t>4.25 pm - 4.50 pm</t>
+  </si>
+  <si>
+    <t>Cybersecurity: Mr. Sampath Wimalaweera</t>
+  </si>
+  <si>
+    <t>Mr. Sampath Wimalaweera, Principal Systems Engineer at Fortinet, will demonstrate how integrated SOC platforms provide comprehensive threat detection and response capabilities for modern enterprise security.</t>
+  </si>
+  <si>
+    <t>4.50 pm - 5.00 pm</t>
+  </si>
+  <si>
+    <t>Raffle Draw</t>
+  </si>
+  <si>
+    <t>16th  October - Day 2 :  Conference</t>
+  </si>
+  <si>
+    <t>15th October - Day 1 : Conference</t>
+  </si>
+  <si>
+    <t>8.30 am - 9.00 am</t>
+  </si>
+  <si>
+    <t>9:00 am - 9:20 am</t>
+  </si>
+  <si>
+    <t>Guest Speech</t>
+  </si>
+  <si>
+    <t>Guest Speech - Dr . Harshana Suriyapperuma , Secretary to the Ministry of Finance</t>
+  </si>
+  <si>
+    <t>9:20 am - 9:45 am</t>
+  </si>
+  <si>
+    <t>Keynote 5:  Mastercard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynote 5:  Mastercard - Mr. Nachiket Limaye , Principal, Services Business Development </t>
+  </si>
+  <si>
+    <t>9.45 am - 10.10 am</t>
+  </si>
+  <si>
+    <t>Keynote 6:  SAT</t>
+  </si>
+  <si>
+    <t>Keynote 6: SAT - Mr.Hari Krishnan , Technical Manager - Strategic Account Management, Manage Engine</t>
+  </si>
+  <si>
+    <t>10.10 am - 10.35 am</t>
+  </si>
+  <si>
+    <t>Keynote 7: DMS</t>
+  </si>
+  <si>
+    <t>Mr. Rajan CS, Regional Manager for India Enterprise &amp; Sri Lanka at Google, will explore how businesses can harness artificial intelligence to drive innovation, optimize operations, and achieve transformative growth.</t>
+  </si>
+  <si>
+    <t>10.35 am - 11.00 am</t>
+  </si>
+  <si>
+    <t>11.00 am - 11. 25 am</t>
+  </si>
+  <si>
+    <t>Huawei Representative Keynote</t>
+  </si>
+  <si>
+    <t>11.25 am -12.25 pm</t>
+  </si>
+  <si>
+    <t>Panel Discussion 2</t>
+  </si>
+  <si>
+    <t>Featuring experts from Mastercard, DMS, SAT, and Fortinet, moderated by Dr. Romesh Ranawana, Dialog Axiata.</t>
+  </si>
+  <si>
+    <t>12.25 pm - 1.30 pm</t>
+  </si>
+  <si>
+    <t>1.40 pm - 2.05 pm</t>
+  </si>
+  <si>
+    <t>InfoSec: Mr. Joseph McGuire</t>
+  </si>
+  <si>
+    <t>Mastercard - Mr. Joseph McGuire , Principal, Innovation Consulting, Mastercard</t>
+  </si>
+  <si>
+    <t>2.05 pm - 2.30 p.m.</t>
+  </si>
+  <si>
+    <t>InfoSec: Mr. Mohnissh Manukulasuriya</t>
+  </si>
+  <si>
+    <t>Mr. Mohnissh Manukulasuriya of Kaspersky will discuss implementing robust cybersecurity frameworks to strengthen organizational resilience against evolving digital threats.</t>
+  </si>
+  <si>
+    <t>2.30 p.m. - 2.55 pm</t>
+  </si>
+  <si>
+    <t>Big Data Analysis</t>
+  </si>
+  <si>
+    <t>2.55 pm - 3.30 pm</t>
+  </si>
+  <si>
+    <t>Afternoon Tea</t>
+  </si>
+  <si>
+    <t>Mr. Varuna Jayalath of Dell Technologies will explore how organizations can leverage data and AI strategies to achieve measurable business outcomes and competitive advantage.</t>
+  </si>
+  <si>
+    <t>3.30 pm - 3.55 pm</t>
+  </si>
+  <si>
+    <t>Mr. Ashok Srinivasan of CommScope will explore emerging trends and technologies shaping the future of digital infrastructure and connectivity solutions.</t>
+  </si>
+  <si>
+    <t>3.55 pm - 4.20 pm</t>
+  </si>
+  <si>
+    <t>Digital Infrastructure: Mr. Vijay Balan</t>
+  </si>
+  <si>
+    <t>Digital Infrastructure: Mr. Ashok Srinivasan</t>
+  </si>
+  <si>
+    <t>Mr. Vijay Balan of IBM will discuss intelligent IT financial management strategies to drive business value in the human-centric Society 5.0 era.</t>
+  </si>
+  <si>
+    <t>4.20 pm - 4.45 pm</t>
+  </si>
+  <si>
+    <t>Digital Transport: Mr. Udana  Wickramasinghe</t>
+  </si>
+  <si>
+    <t>Mr. Udana Wickramasinghe will explore the future of smart tourism, discussing how emerging technologies and sustainable strategies will reshape the travel industry.</t>
+  </si>
+  <si>
+    <t>4.45 pm - 5.00 pm</t>
+  </si>
+  <si>
+    <t>6.13pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome dance </t>
+  </si>
+  <si>
+    <t>NITC 2025 Curtain Raiser</t>
+  </si>
+  <si>
+    <t>Welcome dance by dance troop</t>
+  </si>
+  <si>
+    <t>Curtain Raiser</t>
+  </si>
+  <si>
+    <t>Welcome Address</t>
+  </si>
+  <si>
+    <t>Mr. Heshan Karunaratne, President/ Computer Society of Sri Lanka</t>
+  </si>
+  <si>
+    <t>Address by His Excellency Anura Kumara Dissanayake, 
+The President of the Democratic Socialist Republic of Sri Lanka</t>
+  </si>
+  <si>
+    <t>Arrival of Guests &amp; Registration
 Sponsor videos
 Compere will Announce the arrival of Chief Guest &amp; Guest of Honour</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>6. 00pm</t>
-  </si>
-  <si>
-    <t>Arrival of Chief Guest</t>
-  </si>
-  <si>
-    <t>6.05pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighting of Digital Lamp </t>
-  </si>
-  <si>
-    <t>6.45pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address by the Chief Guest </t>
-  </si>
-  <si>
-    <t>6.55pm</t>
-  </si>
-  <si>
-    <t>Keynote address by the Guest of Honor</t>
-  </si>
-  <si>
-    <t>Compere will introduce the Guest of Honor Hon. Eranga Weeraratne, Deputy Minister of Digital Economy.
-Keynote address by the Guest of Honor</t>
-  </si>
-  <si>
-    <t>7.15pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keynote address by the Strategic Partner </t>
-  </si>
-  <si>
-    <t>Compere will introduce the Keynote Speaker (Strategic Partner)
-Keynote address by the Strategic Partner Mastercard Mr. Sandun Hapugoda, Country Manager Mastercardc</t>
-  </si>
-  <si>
-    <t>The event opens with the National Anthem, followed by the Chief Guest lighting a digital lamp to launch NITC 2025, accompanied by a video and light show.</t>
-  </si>
-  <si>
-    <t>Upon arrival, the CSSL President welcomes the Chief Guest and Guest of Honour, introduces the Executive Council, and all are then escorted to the hall by traditional dancers.</t>
-  </si>
-  <si>
-    <t>Dance Act 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSSL ICT Awards 2024 Judges Recognition </t>
-  </si>
-  <si>
-    <t>For the Judges Recognition, the compere will invite the Minister and Secretary of Digital Economy, the CSSL President, Project Chair, and the NITC 2025 Conference Chair.</t>
-  </si>
-  <si>
-    <t>7.40pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSSL ICT Awards 2024 </t>
-  </si>
-  <si>
-    <t>The compere will invite the Minister and Secretary of Digital Economy, the CSSL President, Project Chair, NITC Conference Chair, and sponsors to present the remaining awards: Best Founder, Postgraduate &amp; Undergraduate Student, and Emerging ICT Leader.</t>
-  </si>
-  <si>
-    <t>7.50pm</t>
-  </si>
-  <si>
-    <t>Keynote Speaker (Diamond Sponsor 1)</t>
-  </si>
-  <si>
-    <t>The compere will introduce the keynote speaker, Mr. Lasantha Bogoda, Director/CEO of Diamond Sponsor DMS Software Technologies, for his address.</t>
-  </si>
-  <si>
-    <t>7.55pm</t>
-  </si>
-  <si>
-    <t>Keynote Speaker (Diamond Sponsor 2)</t>
-  </si>
-  <si>
-    <t>The compere will introduce the next keynote speaker, Mr. Feroze Kamardeen, Director of Diamond Sponsor SAT Group, followed by a 30-second corporate video.</t>
-  </si>
-  <si>
-    <t>8.00pm</t>
-  </si>
-  <si>
-    <t>Sponsor Recognition of the NITC 2024.</t>
-  </si>
-  <si>
-    <t>8.10pm</t>
-  </si>
-  <si>
-    <t>Final Dance Act</t>
-  </si>
-  <si>
-    <t>8.15pm</t>
-  </si>
-  <si>
-    <t>Vote of Thanks by Conference Chair</t>
-  </si>
-  <si>
-    <t>8.20pm</t>
-  </si>
-  <si>
-    <t>Fellowship &amp; Cocktail</t>
-  </si>
-  <si>
-    <t>The compere will invite the CSSL President, Conference Chair, and Secretary on stage to recognize the NITC 2024 sponsors.</t>
-  </si>
-  <si>
-    <t>7.25pm</t>
-  </si>
-  <si>
-    <t>7.30pm</t>
-  </si>
-  <si>
-    <t>6.20pm</t>
-  </si>
-  <si>
-    <t>6.10pm</t>
-  </si>
-  <si>
-    <t>8.15 am - 9.00 am</t>
-  </si>
-  <si>
-    <t>Please welcome our guest speaker, Mr. Sanjaya Karunasena, Chief Executive Officer of GovTech.</t>
-  </si>
-  <si>
-    <t>Guest speech</t>
-  </si>
-  <si>
-    <t>9.00 - 9.20 am</t>
-  </si>
-  <si>
-    <t>9.20 am - 9.45 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keynote 1: Mastercard </t>
-  </si>
-  <si>
-    <t>Keynote 1: Mr. Sandun Hapugoda, Country Manager for Sri Lanka &amp; Maldives at Mastercard.</t>
-  </si>
-  <si>
-    <t>9.45 am - 10.45 am</t>
-  </si>
-  <si>
-    <t>Panel Discussion 1</t>
-  </si>
-  <si>
-    <t>Panel Discussion 1: "E-Government 5.0: Towards Human-Centric, Integrated, and Proactive Public Services." Featuring representatives from Mastercard, DMS/Oracle, SAT/LOLC, and CryptoGen, moderated by Past President Mr. Niranjan De Silva.</t>
-  </si>
-  <si>
-    <t>10.45 am - 11.20 am</t>
-  </si>
-  <si>
-    <t>Morning Tea</t>
-  </si>
-  <si>
-    <t>11.20 am - 11.45 am</t>
-  </si>
-  <si>
-    <t>Keynote 2: DMS</t>
-  </si>
-  <si>
-    <t>Keynote 2: Mr. Yu Ka Chan, Director of Cloud Engineering ASEAN at Oracle Corporation.</t>
-  </si>
-  <si>
-    <t>11.45 pm - 12.10 pm</t>
-  </si>
-  <si>
-    <t>Keynote 3: SAT</t>
-  </si>
-  <si>
-    <t>Keynote 3: Mr. Sudhir Jampala, National Manager at OpenText.</t>
-  </si>
-  <si>
-    <t>12.10 pm -12.35 pm</t>
-  </si>
-  <si>
-    <t>Keynote 4</t>
-  </si>
-  <si>
-    <t>Keynote 4: Dr. Yasas V. Abeywickrama, COO of Doerscircle (Singapore), on taking Sri Lankan digital businesses global.</t>
-  </si>
-  <si>
-    <t>12.35pm - 1.00 pm</t>
-  </si>
-  <si>
-    <t>Advancing Financial Inclusion in the Digital Economy</t>
-  </si>
-  <si>
-    <t>Mr. Sumudu Rathnayake, Advisor to the Ministry of Digital Economy and Director of RDA, will discuss strategies and initiatives for promoting financial inclusion through digital transformation.</t>
-  </si>
-  <si>
-    <t>01.00 pm - 2.00 pm</t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>2.00 pm - 2.25 pm</t>
-  </si>
-  <si>
-    <t>Fintech: Mr. Shashi Madanayake</t>
-  </si>
-  <si>
-    <t>2.25 pm - 2.50 pm</t>
-  </si>
-  <si>
-    <t>Fintech: Mr.Karthik Kishore</t>
-  </si>
-  <si>
-    <t>2.50 pm - 3.15 pm</t>
-  </si>
-  <si>
-    <t>Mr. Shashi Madanayake, Director of Account Management at Mastercard</t>
-  </si>
-  <si>
-    <t>Mr. Karthik Kishore, Regional Director at Zscaler</t>
-  </si>
-  <si>
-    <t>Fintech: Mr. Mahesh Patel</t>
-  </si>
-  <si>
-    <t>Aiken - Mr. Mahesh Patel,Director Products, Hitachi Payment Services (Pvt) Ltd</t>
-  </si>
-  <si>
-    <t>3.15 pm - 3.35 pm</t>
-  </si>
-  <si>
-    <t>3.35 pm - 4.00 pm</t>
-  </si>
-  <si>
-    <t>EduTech: Dr. Dayan Rajapakse</t>
-  </si>
-  <si>
-    <t>Dr. Dayan Rajapakse, Managing Director of ESOFT Metro Campus, will explore the responsible integration of artificial intelligence in educational environments, addressing both transformative potential and ethical considerations in teaching and learning.</t>
-  </si>
-  <si>
-    <t>4.00 pm - 4.25 pm</t>
-  </si>
-  <si>
-    <t>TravelTech: Mr. Aruna Basnayake</t>
-  </si>
-  <si>
-    <t>Mr. Aruna Basnayake, AGM of Digital Engineering &amp; Strategic Solutions at DMS, will explore how artificial intelligence and data-driven personalization are revolutionizing the travel industry and enhancing customer experiences.</t>
-  </si>
-  <si>
-    <t>4.25 pm - 4.50 pm</t>
-  </si>
-  <si>
-    <t>Cybersecurity: Mr. Sampath Wimalaweera</t>
-  </si>
-  <si>
-    <t>Mr. Sampath Wimalaweera, Principal Systems Engineer at Fortinet, will demonstrate how integrated SOC platforms provide comprehensive threat detection and response capabilities for modern enterprise security.</t>
-  </si>
-  <si>
-    <t>4.50 pm - 5.00 pm</t>
-  </si>
-  <si>
-    <t>Raffle Draw</t>
-  </si>
-  <si>
-    <t>16th  October - Day 2 :  Conference</t>
-  </si>
-  <si>
-    <t>15th October - Day 1 : Conference</t>
-  </si>
-  <si>
-    <t>8.30 am - 9.00 am</t>
-  </si>
-  <si>
-    <t>9:00 am - 9:20 am</t>
-  </si>
-  <si>
-    <t>Guest Speech</t>
-  </si>
-  <si>
-    <t>Guest Speech - Dr . Harshana Suriyapperuma , Secretary to the Ministry of Finance</t>
-  </si>
-  <si>
-    <t>9:20 am - 9:45 am</t>
-  </si>
-  <si>
-    <t>Keynote 5:  Mastercard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keynote 5:  Mastercard - Mr. Nachiket Limaye , Principal, Services Business Development </t>
-  </si>
-  <si>
-    <t>9.45 am - 10.10 am</t>
-  </si>
-  <si>
-    <t>Keynote 6:  SAT</t>
-  </si>
-  <si>
-    <t>Keynote 6: SAT - Mr.Hari Krishnan , Technical Manager - Strategic Account Management, Manage Engine</t>
-  </si>
-  <si>
-    <t>10.10 am - 10.35 am</t>
-  </si>
-  <si>
-    <t>Keynote 7: DMS</t>
-  </si>
-  <si>
-    <t>Mr. Rajan CS, Regional Manager for India Enterprise &amp; Sri Lanka at Google, will explore how businesses can harness artificial intelligence to drive innovation, optimize operations, and achieve transformative growth.</t>
-  </si>
-  <si>
-    <t>10.35 am - 11.00 am</t>
-  </si>
-  <si>
-    <t>11.00 am - 11. 25 am</t>
-  </si>
-  <si>
-    <t>Huawei Representative Keynote</t>
-  </si>
-  <si>
-    <t>11.25 am -12.25 pm</t>
-  </si>
-  <si>
-    <t>Panel Discussion 2</t>
-  </si>
-  <si>
-    <t>Featuring experts from Mastercard, DMS, SAT, and Fortinet, moderated by Dr. Romesh Ranawana, Dialog Axiata.</t>
-  </si>
-  <si>
-    <t>12.25 pm - 1.30 pm</t>
-  </si>
-  <si>
-    <t>1.40 pm - 2.05 pm</t>
-  </si>
-  <si>
-    <t>InfoSec: Mr. Joseph McGuire</t>
-  </si>
-  <si>
-    <t>Mastercard - Mr. Joseph McGuire , Principal, Innovation Consulting, Mastercard</t>
-  </si>
-  <si>
-    <t>2.05 pm - 2.30 p.m.</t>
-  </si>
-  <si>
-    <t>InfoSec: Mr. Mohnissh Manukulasuriya</t>
-  </si>
-  <si>
-    <t>Mr. Mohnissh Manukulasuriya of Kaspersky will discuss implementing robust cybersecurity frameworks to strengthen organizational resilience against evolving digital threats.</t>
-  </si>
-  <si>
-    <t>2.30 p.m. - 2.55 pm</t>
-  </si>
-  <si>
-    <t>Big Data Analysis</t>
-  </si>
-  <si>
-    <t>2.55 pm - 3.30 pm</t>
-  </si>
-  <si>
-    <t>Afternoon Tea</t>
-  </si>
-  <si>
-    <t>Mr. Varuna Jayalath of Dell Technologies will explore how organizations can leverage data and AI strategies to achieve measurable business outcomes and competitive advantage.</t>
-  </si>
-  <si>
-    <t>3.30 pm - 3.55 pm</t>
-  </si>
-  <si>
-    <t>Mr. Ashok Srinivasan of CommScope will explore emerging trends and technologies shaping the future of digital infrastructure and connectivity solutions.</t>
-  </si>
-  <si>
-    <t>3.55 pm - 4.20 pm</t>
-  </si>
-  <si>
-    <t>Digital Infrastructure: Mr. Vijay Balan</t>
-  </si>
-  <si>
-    <t>Digital Infrastructure: Mr. Ashok Srinivasan</t>
-  </si>
-  <si>
-    <t>Mr. Vijay Balan of IBM will discuss intelligent IT financial management strategies to drive business value in the human-centric Society 5.0 era.</t>
-  </si>
-  <si>
-    <t>4.20 pm - 4.45 pm</t>
-  </si>
-  <si>
-    <t>Digital Transport: Mr. Udana  Wickramasinghe</t>
-  </si>
-  <si>
-    <t>Mr. Udana Wickramasinghe will explore the future of smart tourism, discussing how emerging technologies and sustainable strategies will reshape the travel industry.</t>
-  </si>
-  <si>
-    <t>4.45 pm - 5.00 pm</t>
-  </si>
-  <si>
-    <t>6.13pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome dance </t>
-  </si>
-  <si>
-    <t>NITC 2025 Curtain Raiser</t>
-  </si>
-  <si>
-    <t>Welcome dance by dance troop</t>
-  </si>
-  <si>
-    <t>Curtain Raiser</t>
-  </si>
-  <si>
-    <t>Welcome Address</t>
-  </si>
-  <si>
-    <t>Mr. Heshan Karunaratne, President/ Computer Society of Sri Lanka</t>
-  </si>
-  <si>
-    <t>Address by His Excellency Anura Kumara Dissanayake, 
-The President of the Democratic Socialist Republic of Sri Lanka</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -985,202 +985,202 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1198,199 +1198,199 @@
     </row>
     <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="76" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -1408,183 +1408,183 @@
     </row>
     <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
